--- a/PMP/咖啡館一案通.xlsx
+++ b/PMP/咖啡館一案通.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="112">
   <si>
     <t>長宏PMP培訓專案 一案通實作</t>
   </si>
@@ -1126,154 +1126,6 @@
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>專案管理流程</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>進行整合變更管制</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>專案文件</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>班別</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>專案名稱</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>製作者</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>製作日期</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>編號</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>課堂作業</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>是</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>PMBOK</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>參考頁碼</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>講義頁碼</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <sz val="14"/>
         <color rgb="FF0000FF"/>
         <rFont val="微軟正黑體"/>
@@ -1574,127 +1426,6 @@
     <r>
       <rPr>
         <b/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>變更</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">/ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>構型管理計畫書</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 
-(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>含於專案管理計畫裡</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>109</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">07 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">29 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>日</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微軟正黑體"/>
@@ -1823,12 +1554,36 @@
 (Y/N?)</t>
     </r>
   </si>
+  <si>
+    <t>涂宇欣</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>咖啡館開發案</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>進行整合變更管制</t>
+  </si>
+  <si>
+    <t>變更/ 構型管理計畫書 
+(含於專案管理計畫裡)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>北155/第一組</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>109年07 月29 日</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="41" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1979,38 +1734,9 @@
       <charset val="136"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微軟正黑體"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="微軟正黑體"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="微軟正黑體"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="微軟正黑體"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color rgb="FF000000"/>
       <name val="微軟正黑體"/>
       <family val="2"/>
       <charset val="136"/>
@@ -2044,41 +1770,9 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -2106,6 +1800,38 @@
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="5">
@@ -2690,7 +2416,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2751,6 +2477,42 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2783,15 +2545,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2828,6 +2581,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2883,12 +2645,6 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2915,6 +2671,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2949,158 +2711,107 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3172,7 +2883,7 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>238125</xdr:colOff>
           <xdr:row>83</xdr:row>
-          <xdr:rowOff>8659</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3200,23 +2911,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3567,68 +3265,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="48"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="60"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="51" t="s">
+      <c r="B2" s="62"/>
+      <c r="C2" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="52"/>
+      <c r="D2" s="64"/>
       <c r="E2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="53" t="s">
+      <c r="F2" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="54"/>
-      <c r="H2" s="55"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="67"/>
     </row>
     <row r="3" spans="1:8" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="57"/>
+      <c r="C3" s="69"/>
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="58" t="s">
+      <c r="E3" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="60"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="72"/>
     </row>
     <row r="4" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="35"/>
+      <c r="C4" s="44"/>
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="36" t="s">
+      <c r="E4" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="37"/>
+      <c r="F4" s="46"/>
       <c r="G4" s="1" t="s">
         <v>10</v>
       </c>
@@ -3640,43 +3338,43 @@
       <c r="A5" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="39"/>
+      <c r="C5" s="48"/>
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="38"/>
-      <c r="F5" s="39"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="48"/>
       <c r="G5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H5" s="17"/>
     </row>
     <row r="6" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="42"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="51"/>
     </row>
     <row r="7" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="45"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="54"/>
     </row>
     <row r="8" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18"/>
@@ -3689,184 +3387,184 @@
       <c r="H8" s="19"/>
     </row>
     <row r="9" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="33"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="57"/>
     </row>
     <row r="10" spans="1:8" s="6" customFormat="1" ht="44.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="27"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="39"/>
     </row>
     <row r="11" spans="1:8" s="6" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="27"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="39"/>
     </row>
     <row r="12" spans="1:8" s="6" customFormat="1" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="27"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="39"/>
     </row>
     <row r="13" spans="1:8" s="6" customFormat="1" ht="41.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="27"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="39"/>
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="27"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="39"/>
     </row>
     <row r="15" spans="1:8" s="6" customFormat="1" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="27"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="39"/>
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="27"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="39"/>
     </row>
     <row r="17" spans="1:8" s="6" customFormat="1" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="27"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="39"/>
     </row>
     <row r="18" spans="1:8" s="6" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="27"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="39"/>
     </row>
     <row r="19" spans="1:8" s="6" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="27"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="39"/>
     </row>
     <row r="20" spans="1:8" s="6" customFormat="1" ht="50.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="27"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="39"/>
     </row>
     <row r="21" spans="1:8" s="6" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="27"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="39"/>
     </row>
     <row r="22" spans="1:8" s="6" customFormat="1" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="27"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="39"/>
     </row>
     <row r="23" spans="1:8" s="6" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="30"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="42"/>
     </row>
     <row r="24" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
@@ -3919,172 +3617,172 @@
       <c r="H28" s="4"/>
     </row>
     <row r="29" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="24"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="36"/>
     </row>
     <row r="30" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="20" t="s">
+      <c r="A30" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="B30" s="21"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="24"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="36"/>
     </row>
     <row r="31" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="20" t="s">
+      <c r="A31" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="21"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="24"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="36"/>
     </row>
     <row r="32" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="21"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="24"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="36"/>
     </row>
     <row r="33" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="20" t="s">
+      <c r="A33" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="21"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="24"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="36"/>
     </row>
     <row r="34" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="20" t="s">
+      <c r="A34" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="21"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="24"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="36"/>
     </row>
     <row r="35" spans="1:8" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="20" t="s">
+      <c r="A35" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="21"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="24"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="36"/>
     </row>
     <row r="36" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="20" t="s">
+      <c r="A36" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="21"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="24"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="36"/>
     </row>
     <row r="37" spans="1:8" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="20" t="s">
+      <c r="A37" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="B37" s="21"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="24"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="36"/>
     </row>
     <row r="38" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="20" t="s">
+      <c r="A38" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="B38" s="21"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="24"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="36"/>
     </row>
     <row r="39" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="20" t="s">
+      <c r="A39" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="B39" s="21"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="24"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="36"/>
     </row>
     <row r="40" spans="1:8" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="20" t="s">
+      <c r="A40" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="21"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="24"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="36"/>
     </row>
     <row r="41" spans="1:8" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="20" t="s">
+      <c r="A41" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="B41" s="21"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="24"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="36"/>
     </row>
     <row r="42" spans="1:8" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="20" t="s">
+      <c r="A42" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="B42" s="21"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="24"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="36"/>
     </row>
     <row r="43" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
@@ -4367,16 +4065,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="77"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="89"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
@@ -4397,22 +4095,22 @@
       <c r="Z1" s="5"/>
     </row>
     <row r="2" spans="1:26" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="78" t="s">
+      <c r="B2" s="46"/>
+      <c r="C2" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="79"/>
+      <c r="D2" s="91"/>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="80" t="s">
+      <c r="F2" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="81"/>
-      <c r="H2" s="82"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="94"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
@@ -4436,15 +4134,15 @@
       <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="67"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="77"/>
       <c r="D3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="83"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="85"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="97"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
@@ -4468,15 +4166,15 @@
       <c r="A4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="67"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="77"/>
       <c r="D4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="68" t="s">
+      <c r="E4" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="69"/>
+      <c r="F4" s="79"/>
       <c r="G4" s="1" t="s">
         <v>10</v>
       </c>
@@ -4506,17 +4204,17 @@
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="39"/>
+      <c r="C5" s="48"/>
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="38" t="s">
+      <c r="E5" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="39"/>
+      <c r="F5" s="48"/>
       <c r="G5" s="1" t="s">
         <v>15</v>
       </c>
@@ -4541,16 +4239,16 @@
       <c r="Z5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="70" t="s">
+      <c r="A6" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="71"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="72"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="82"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
@@ -4571,14 +4269,14 @@
       <c r="Z6" s="5"/>
     </row>
     <row r="7" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="73"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="74"/>
+      <c r="A7" s="83"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="84"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
@@ -4627,16 +4325,16 @@
       <c r="Z8" s="5"/>
     </row>
     <row r="9" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="65"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="86"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
@@ -4657,16 +4355,16 @@
       <c r="Z9" s="5"/>
     </row>
     <row r="10" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="61" t="s">
+      <c r="A10" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="63"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="75"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
@@ -4687,16 +4385,16 @@
       <c r="Z10" s="5"/>
     </row>
     <row r="11" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="61" t="s">
+      <c r="A11" s="73" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="63"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="75"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
@@ -4717,16 +4415,16 @@
       <c r="Z11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="61" t="s">
+      <c r="A12" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="63"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="75"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
@@ -4747,16 +4445,16 @@
       <c r="Z12" s="5"/>
     </row>
     <row r="13" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="61" t="s">
+      <c r="A13" s="73" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="62"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="63"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="75"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
@@ -4777,16 +4475,16 @@
       <c r="Z13" s="5"/>
     </row>
     <row r="14" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="61" t="s">
+      <c r="A14" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="62"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="63"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="75"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
@@ -4807,16 +4505,16 @@
       <c r="Z14" s="5"/>
     </row>
     <row r="15" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="61" t="s">
+      <c r="A15" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="62"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="63"/>
+      <c r="B15" s="74"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="75"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
@@ -4837,16 +4535,16 @@
       <c r="Z15" s="5"/>
     </row>
     <row r="16" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="61" t="s">
+      <c r="A16" s="73" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="62"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="63"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="75"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
@@ -4867,16 +4565,16 @@
       <c r="Z16" s="5"/>
     </row>
     <row r="17" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="61" t="s">
+      <c r="A17" s="73" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="62"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="63"/>
+      <c r="B17" s="74"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="75"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
@@ -4897,16 +4595,16 @@
       <c r="Z17" s="5"/>
     </row>
     <row r="18" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="61" t="s">
+      <c r="A18" s="73" t="s">
         <v>59</v>
       </c>
-      <c r="B18" s="62"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="63"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="75"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
@@ -4927,16 +4625,16 @@
       <c r="Z18" s="5"/>
     </row>
     <row r="19" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="61" t="s">
+      <c r="A19" s="73" t="s">
         <v>60</v>
       </c>
-      <c r="B19" s="62"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="63"/>
+      <c r="B19" s="74"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="75"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
@@ -32815,142 +32513,148 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="A94" sqref="A94:H94"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.125" style="86" customWidth="1"/>
-    <col min="2" max="3" width="9" style="86"/>
-    <col min="4" max="4" width="13.75" style="86" customWidth="1"/>
-    <col min="5" max="5" width="13.5" style="86" customWidth="1"/>
-    <col min="6" max="7" width="9" style="86"/>
-    <col min="8" max="8" width="25.625" style="86" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="86"/>
+    <col min="1" max="1" width="14.125" style="20" customWidth="1"/>
+    <col min="2" max="3" width="9" style="20"/>
+    <col min="4" max="4" width="13.75" style="20" customWidth="1"/>
+    <col min="5" max="5" width="13.5" style="20" customWidth="1"/>
+    <col min="6" max="7" width="9" style="20"/>
+    <col min="8" max="8" width="25.625" style="20" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="86" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
-        <v>112</v>
+    <row r="1" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="87" t="s">
+        <v>100</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="77"/>
-    </row>
-    <row r="2" spans="1:8" s="86" customFormat="1" ht="57.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="87" t="s">
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="89"/>
+    </row>
+    <row r="2" spans="1:8" ht="57.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="119" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="120"/>
+      <c r="C2" s="121" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="122"/>
+      <c r="E2" s="123" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="124" t="s">
+        <v>109</v>
+      </c>
+      <c r="G2" s="125"/>
+      <c r="H2" s="126"/>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="127" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="119" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="120"/>
+      <c r="D3" s="123" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="124" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="126"/>
+    </row>
+    <row r="4" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="127" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="119" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="120"/>
+      <c r="D4" s="123" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="119" t="s">
+        <v>111</v>
+      </c>
+      <c r="F4" s="120"/>
+      <c r="G4" s="123" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="128">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="127" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="129" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="130"/>
+      <c r="D5" s="123" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="129" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="130"/>
+      <c r="G5" s="123" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="131"/>
+    </row>
+    <row r="6" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="107" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="108"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="108"/>
+      <c r="H6" s="109"/>
+    </row>
+    <row r="7" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="110" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="89" t="s">
+      <c r="B7" s="111"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="111"/>
+      <c r="H7" s="112"/>
+    </row>
+    <row r="8" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+    </row>
+    <row r="9" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="113" t="s">
         <v>82</v>
-      </c>
-      <c r="D2" s="90"/>
-      <c r="E2" s="91" t="s">
-        <v>83</v>
-      </c>
-      <c r="F2" s="92" t="s">
-        <v>113</v>
-      </c>
-      <c r="G2" s="93"/>
-      <c r="H2" s="94"/>
-    </row>
-    <row r="3" spans="1:8" s="86" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="95" t="s">
-        <v>84</v>
-      </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="98" t="s">
-        <v>85</v>
-      </c>
-      <c r="E3" s="92"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="94"/>
-    </row>
-    <row r="4" spans="1:8" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="95" t="s">
-        <v>86</v>
-      </c>
-      <c r="B4" s="99"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="98" t="s">
-        <v>87</v>
-      </c>
-      <c r="E4" s="87" t="s">
-        <v>114</v>
-      </c>
-      <c r="F4" s="88"/>
-      <c r="G4" s="91" t="s">
-        <v>88</v>
-      </c>
-      <c r="H4" s="101">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="86" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="102" t="s">
-        <v>89</v>
-      </c>
-      <c r="B5" s="103" t="s">
-        <v>90</v>
-      </c>
-      <c r="C5" s="104"/>
-      <c r="D5" s="91" t="s">
-        <v>91</v>
-      </c>
-      <c r="E5" s="103" t="s">
-        <v>71</v>
-      </c>
-      <c r="F5" s="104"/>
-      <c r="G5" s="91" t="s">
-        <v>92</v>
-      </c>
-      <c r="H5" s="105"/>
-    </row>
-    <row r="6" spans="1:8" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="106" t="s">
-        <v>115</v>
-      </c>
-      <c r="B6" s="107"/>
-      <c r="C6" s="107"/>
-      <c r="D6" s="107"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="107"/>
-      <c r="H6" s="108"/>
-    </row>
-    <row r="7" spans="1:8" s="86" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="109" t="s">
-        <v>93</v>
-      </c>
-      <c r="B7" s="110"/>
-      <c r="C7" s="110"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="110"/>
-      <c r="H7" s="111"/>
-    </row>
-    <row r="8" spans="1:8" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="112"/>
-      <c r="B8" s="112"/>
-      <c r="C8" s="112"/>
-      <c r="D8" s="112"/>
-      <c r="E8" s="112"/>
-      <c r="F8" s="112"/>
-      <c r="G8" s="112"/>
-      <c r="H8" s="112"/>
-    </row>
-    <row r="9" spans="1:8" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="113" t="s">
-        <v>94</v>
       </c>
       <c r="B9" s="114"/>
       <c r="C9" s="114"/>
@@ -32960,9 +32664,9 @@
       <c r="G9" s="114"/>
       <c r="H9" s="115"/>
     </row>
-    <row r="10" spans="1:8" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="116" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="B10" s="117"/>
       <c r="C10" s="117"/>
@@ -32972,9 +32676,9 @@
       <c r="G10" s="117"/>
       <c r="H10" s="118"/>
     </row>
-    <row r="11" spans="1:8" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="116" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="B11" s="117"/>
       <c r="C11" s="117"/>
@@ -32984,9 +32688,9 @@
       <c r="G11" s="117"/>
       <c r="H11" s="118"/>
     </row>
-    <row r="12" spans="1:8" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="116" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="B12" s="117"/>
       <c r="C12" s="117"/>
@@ -32996,9 +32700,9 @@
       <c r="G12" s="117"/>
       <c r="H12" s="118"/>
     </row>
-    <row r="13" spans="1:8" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="116" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="B13" s="117"/>
       <c r="C13" s="117"/>
@@ -33008,1053 +32712,1053 @@
       <c r="G13" s="117"/>
       <c r="H13" s="118"/>
     </row>
-    <row r="14" spans="1:8" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="119"/>
-      <c r="B14" s="119"/>
-      <c r="C14" s="119"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
-      <c r="F14" s="119"/>
-      <c r="G14" s="119"/>
-      <c r="H14" s="119"/>
-    </row>
-    <row r="15" spans="1:8" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="120"/>
-      <c r="B15" s="120"/>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
-      <c r="F15" s="120"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="120"/>
-    </row>
-    <row r="16" spans="1:8" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="120"/>
-      <c r="B16" s="120"/>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
-      <c r="F16" s="120"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="120"/>
-    </row>
-    <row r="17" spans="1:8" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="121" t="s">
-        <v>117</v>
+    <row r="14" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+    </row>
+    <row r="15" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+    </row>
+    <row r="16" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+    </row>
+    <row r="17" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="101" t="s">
+        <v>103</v>
       </c>
-      <c r="B17" s="122"/>
-      <c r="C17" s="122"/>
-      <c r="D17" s="122"/>
-      <c r="E17" s="122"/>
-      <c r="F17" s="122"/>
-      <c r="G17" s="122"/>
-      <c r="H17" s="123"/>
-    </row>
-    <row r="18" spans="1:8" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="124" t="s">
+      <c r="B17" s="102"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="102"/>
+      <c r="G17" s="102"/>
+      <c r="H17" s="103"/>
+    </row>
+    <row r="18" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="98" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" s="99"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="99"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="99"/>
+      <c r="H18" s="100"/>
+    </row>
+    <row r="19" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="24"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="26"/>
+    </row>
+    <row r="20" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="24"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="26"/>
+    </row>
+    <row r="21" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="24"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="26"/>
+    </row>
+    <row r="22" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="24"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="26"/>
+    </row>
+    <row r="23" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="24"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="26"/>
+    </row>
+    <row r="24" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="24"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="26"/>
+    </row>
+    <row r="25" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="24"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="26"/>
+    </row>
+    <row r="26" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="24"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="26"/>
+    </row>
+    <row r="27" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="24"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="26"/>
+    </row>
+    <row r="28" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="24"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="26"/>
+    </row>
+    <row r="29" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="24"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="26"/>
+    </row>
+    <row r="30" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="24"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="26"/>
+    </row>
+    <row r="31" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="24"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="26"/>
+    </row>
+    <row r="32" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="24"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="26"/>
+    </row>
+    <row r="33" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="24"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="26"/>
+    </row>
+    <row r="34" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="24"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="26"/>
+    </row>
+    <row r="35" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="24"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="26"/>
+    </row>
+    <row r="36" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="24"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="26"/>
+    </row>
+    <row r="37" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="98"/>
+      <c r="B37" s="99"/>
+      <c r="C37" s="99"/>
+      <c r="D37" s="99"/>
+      <c r="E37" s="99"/>
+      <c r="F37" s="99"/>
+      <c r="G37" s="99"/>
+      <c r="H37" s="100"/>
+    </row>
+    <row r="38" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="98"/>
+      <c r="B38" s="99"/>
+      <c r="C38" s="99"/>
+      <c r="D38" s="99"/>
+      <c r="E38" s="99"/>
+      <c r="F38" s="99"/>
+      <c r="G38" s="99"/>
+      <c r="H38" s="100"/>
+    </row>
+    <row r="39" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="101" t="s">
+        <v>87</v>
+      </c>
+      <c r="B39" s="102"/>
+      <c r="C39" s="102"/>
+      <c r="D39" s="102"/>
+      <c r="E39" s="102"/>
+      <c r="F39" s="102"/>
+      <c r="G39" s="102"/>
+      <c r="H39" s="103"/>
+    </row>
+    <row r="40" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="21"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+    </row>
+    <row r="41" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="B41" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="D41" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="E41" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="F41" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="G41" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="H41" s="28" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="B42" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D42" s="31">
+        <v>1090729</v>
+      </c>
+      <c r="E42" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="F42" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="G42" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="H42" s="30" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="B43" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="C43" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="D43" s="31">
+        <v>1090729</v>
+      </c>
+      <c r="E43" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="F43" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="G43" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="H43" s="30"/>
+    </row>
+    <row r="44" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="29"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
+    </row>
+    <row r="45" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="29"/>
+      <c r="B45" s="30"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
+    </row>
+    <row r="46" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="29"/>
+      <c r="B46" s="30"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
+    </row>
+    <row r="47" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="29"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="30"/>
+    </row>
+    <row r="48" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="29"/>
+      <c r="B48" s="30"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="30"/>
+    </row>
+    <row r="49" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="29"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="30"/>
+    </row>
+    <row r="50" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="29"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="30"/>
+    </row>
+    <row r="51" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="29"/>
+      <c r="B51" s="30"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="30"/>
+    </row>
+    <row r="52" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="104"/>
+      <c r="B52" s="105"/>
+      <c r="C52" s="105"/>
+      <c r="D52" s="105"/>
+      <c r="E52" s="105"/>
+      <c r="F52" s="105"/>
+      <c r="G52" s="105"/>
+      <c r="H52" s="106"/>
+    </row>
+    <row r="53" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="98"/>
+      <c r="B53" s="99"/>
+      <c r="C53" s="99"/>
+      <c r="D53" s="99"/>
+      <c r="E53" s="99"/>
+      <c r="F53" s="99"/>
+      <c r="G53" s="99"/>
+      <c r="H53" s="100"/>
+    </row>
+    <row r="54" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="101" t="s">
+        <v>97</v>
+      </c>
+      <c r="B54" s="102"/>
+      <c r="C54" s="102"/>
+      <c r="D54" s="102"/>
+      <c r="E54" s="102"/>
+      <c r="F54" s="102"/>
+      <c r="G54" s="102"/>
+      <c r="H54" s="103"/>
+    </row>
+    <row r="55" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="98"/>
+      <c r="B55" s="99"/>
+      <c r="C55" s="99"/>
+      <c r="D55" s="99"/>
+      <c r="E55" s="99"/>
+      <c r="F55" s="99"/>
+      <c r="G55" s="99"/>
+      <c r="H55" s="100"/>
+    </row>
+    <row r="56" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="98"/>
+      <c r="B56" s="99"/>
+      <c r="C56" s="99"/>
+      <c r="D56" s="99"/>
+      <c r="E56" s="99"/>
+      <c r="F56" s="99"/>
+      <c r="G56" s="99"/>
+      <c r="H56" s="100"/>
+    </row>
+    <row r="57" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="98"/>
+      <c r="B57" s="99"/>
+      <c r="C57" s="99"/>
+      <c r="D57" s="99"/>
+      <c r="E57" s="99"/>
+      <c r="F57" s="99"/>
+      <c r="G57" s="99"/>
+      <c r="H57" s="100"/>
+    </row>
+    <row r="58" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="24"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="26"/>
+    </row>
+    <row r="59" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="24"/>
+      <c r="B59" s="25"/>
+      <c r="C59" s="25"/>
+      <c r="D59" s="25"/>
+      <c r="E59" s="25"/>
+      <c r="F59" s="25"/>
+      <c r="G59" s="25"/>
+      <c r="H59" s="26"/>
+    </row>
+    <row r="60" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="24"/>
+      <c r="B60" s="25"/>
+      <c r="C60" s="25"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="26"/>
+    </row>
+    <row r="61" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="98"/>
+      <c r="B61" s="99"/>
+      <c r="C61" s="99"/>
+      <c r="D61" s="99"/>
+      <c r="E61" s="99"/>
+      <c r="F61" s="99"/>
+      <c r="G61" s="99"/>
+      <c r="H61" s="100"/>
+    </row>
+    <row r="62" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="24"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="25"/>
+      <c r="F62" s="25"/>
+      <c r="G62" s="25"/>
+      <c r="H62" s="26"/>
+    </row>
+    <row r="63" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="24"/>
+      <c r="B63" s="25"/>
+      <c r="C63" s="25"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="25"/>
+      <c r="F63" s="25"/>
+      <c r="G63" s="25"/>
+      <c r="H63" s="26"/>
+    </row>
+    <row r="64" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="24"/>
+      <c r="B64" s="25"/>
+      <c r="C64" s="25"/>
+      <c r="D64" s="25"/>
+      <c r="E64" s="25"/>
+      <c r="F64" s="25"/>
+      <c r="G64" s="25"/>
+      <c r="H64" s="26"/>
+    </row>
+    <row r="65" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="24"/>
+      <c r="B65" s="25"/>
+      <c r="C65" s="25"/>
+      <c r="D65" s="25"/>
+      <c r="E65" s="25"/>
+      <c r="F65" s="25"/>
+      <c r="G65" s="25"/>
+      <c r="H65" s="26"/>
+    </row>
+    <row r="66" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="98"/>
+      <c r="B66" s="99"/>
+      <c r="C66" s="99"/>
+      <c r="D66" s="99"/>
+      <c r="E66" s="99"/>
+      <c r="F66" s="99"/>
+      <c r="G66" s="99"/>
+      <c r="H66" s="100"/>
+    </row>
+    <row r="67" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="24"/>
+      <c r="B67" s="25"/>
+      <c r="C67" s="25"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="25"/>
+      <c r="H67" s="26"/>
+    </row>
+    <row r="68" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="24"/>
+      <c r="B68" s="25"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="25"/>
+      <c r="E68" s="25"/>
+      <c r="F68" s="25"/>
+      <c r="G68" s="25"/>
+      <c r="H68" s="26"/>
+    </row>
+    <row r="69" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="24"/>
+      <c r="B69" s="25"/>
+      <c r="C69" s="25"/>
+      <c r="D69" s="25"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="25"/>
+      <c r="G69" s="25"/>
+      <c r="H69" s="26"/>
+    </row>
+    <row r="70" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="24"/>
+      <c r="B70" s="25"/>
+      <c r="C70" s="25"/>
+      <c r="D70" s="25"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="25"/>
+      <c r="G70" s="25"/>
+      <c r="H70" s="26"/>
+    </row>
+    <row r="71" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="24"/>
+      <c r="B71" s="25"/>
+      <c r="C71" s="25"/>
+      <c r="D71" s="25"/>
+      <c r="E71" s="25"/>
+      <c r="F71" s="25"/>
+      <c r="G71" s="25"/>
+      <c r="H71" s="26"/>
+    </row>
+    <row r="72" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="24"/>
+      <c r="B72" s="25"/>
+      <c r="C72" s="25"/>
+      <c r="D72" s="25"/>
+      <c r="E72" s="25"/>
+      <c r="F72" s="25"/>
+      <c r="G72" s="25"/>
+      <c r="H72" s="26"/>
+    </row>
+    <row r="73" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="24"/>
+      <c r="B73" s="25"/>
+      <c r="C73" s="25"/>
+      <c r="D73" s="25"/>
+      <c r="E73" s="25"/>
+      <c r="F73" s="25"/>
+      <c r="G73" s="25"/>
+      <c r="H73" s="26"/>
+    </row>
+    <row r="74" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="98"/>
+      <c r="B74" s="99"/>
+      <c r="C74" s="99"/>
+      <c r="D74" s="99"/>
+      <c r="E74" s="99"/>
+      <c r="F74" s="99"/>
+      <c r="G74" s="99"/>
+      <c r="H74" s="100"/>
+    </row>
+    <row r="75" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="24"/>
+      <c r="B75" s="25"/>
+      <c r="C75" s="25"/>
+      <c r="D75" s="25"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="25"/>
+      <c r="G75" s="25"/>
+      <c r="H75" s="26"/>
+    </row>
+    <row r="76" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="98"/>
+      <c r="B76" s="99"/>
+      <c r="C76" s="99"/>
+      <c r="D76" s="99"/>
+      <c r="E76" s="99"/>
+      <c r="F76" s="99"/>
+      <c r="G76" s="99"/>
+      <c r="H76" s="100"/>
+    </row>
+    <row r="77" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="98"/>
+      <c r="B77" s="99"/>
+      <c r="C77" s="99"/>
+      <c r="D77" s="99"/>
+      <c r="E77" s="99"/>
+      <c r="F77" s="99"/>
+      <c r="G77" s="99"/>
+      <c r="H77" s="100"/>
+    </row>
+    <row r="78" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="24"/>
+      <c r="B78" s="25"/>
+      <c r="C78" s="25"/>
+      <c r="D78" s="25"/>
+      <c r="E78" s="25"/>
+      <c r="F78" s="25"/>
+      <c r="G78" s="25"/>
+      <c r="H78" s="26"/>
+    </row>
+    <row r="79" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="24"/>
+      <c r="B79" s="25"/>
+      <c r="C79" s="25"/>
+      <c r="D79" s="25"/>
+      <c r="E79" s="25"/>
+      <c r="F79" s="25"/>
+      <c r="G79" s="25"/>
+      <c r="H79" s="26"/>
+    </row>
+    <row r="80" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="98"/>
+      <c r="B80" s="99"/>
+      <c r="C80" s="99"/>
+      <c r="D80" s="99"/>
+      <c r="E80" s="99"/>
+      <c r="F80" s="99"/>
+      <c r="G80" s="99"/>
+      <c r="H80" s="100"/>
+    </row>
+    <row r="81" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="98"/>
+      <c r="B81" s="99"/>
+      <c r="C81" s="99"/>
+      <c r="D81" s="99"/>
+      <c r="E81" s="99"/>
+      <c r="F81" s="99"/>
+      <c r="G81" s="99"/>
+      <c r="H81" s="100"/>
+    </row>
+    <row r="82" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="98"/>
+      <c r="B82" s="99"/>
+      <c r="C82" s="99"/>
+      <c r="D82" s="99"/>
+      <c r="E82" s="99"/>
+      <c r="F82" s="99"/>
+      <c r="G82" s="99"/>
+      <c r="H82" s="100"/>
+    </row>
+    <row r="83" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="24"/>
+      <c r="B83" s="25"/>
+      <c r="C83" s="25"/>
+      <c r="D83" s="25"/>
+      <c r="E83" s="25"/>
+      <c r="F83" s="25"/>
+      <c r="G83" s="25"/>
+      <c r="H83" s="26"/>
+    </row>
+    <row r="84" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="24"/>
+      <c r="B84" s="25"/>
+      <c r="C84" s="25"/>
+      <c r="D84" s="25"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="25"/>
+      <c r="G84" s="25"/>
+      <c r="H84" s="26"/>
+    </row>
+    <row r="85" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="24"/>
+      <c r="B85" s="25"/>
+      <c r="C85" s="25"/>
+      <c r="D85" s="25"/>
+      <c r="E85" s="25"/>
+      <c r="F85" s="25"/>
+      <c r="G85" s="25"/>
+      <c r="H85" s="26"/>
+    </row>
+    <row r="86" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="24"/>
+      <c r="B86" s="25"/>
+      <c r="C86" s="25"/>
+      <c r="D86" s="25"/>
+      <c r="E86" s="25"/>
+      <c r="F86" s="25"/>
+      <c r="G86" s="25"/>
+      <c r="H86" s="26"/>
+    </row>
+    <row r="87" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="24"/>
+      <c r="B87" s="25"/>
+      <c r="C87" s="25"/>
+      <c r="D87" s="25"/>
+      <c r="E87" s="25"/>
+      <c r="F87" s="25"/>
+      <c r="G87" s="25"/>
+      <c r="H87" s="26"/>
+    </row>
+    <row r="88" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="24"/>
+      <c r="B88" s="25"/>
+      <c r="C88" s="25"/>
+      <c r="D88" s="25"/>
+      <c r="E88" s="25"/>
+      <c r="F88" s="25"/>
+      <c r="G88" s="25"/>
+      <c r="H88" s="26"/>
+    </row>
+    <row r="89" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="24"/>
+      <c r="B89" s="25"/>
+      <c r="C89" s="25"/>
+      <c r="D89" s="25"/>
+      <c r="E89" s="25"/>
+      <c r="F89" s="25"/>
+      <c r="G89" s="25"/>
+      <c r="H89" s="26"/>
+    </row>
+    <row r="90" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="24"/>
+      <c r="B90" s="25"/>
+      <c r="C90" s="25"/>
+      <c r="D90" s="25"/>
+      <c r="E90" s="25"/>
+      <c r="F90" s="25"/>
+      <c r="G90" s="25"/>
+      <c r="H90" s="26"/>
+    </row>
+    <row r="91" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="98"/>
+      <c r="B91" s="99"/>
+      <c r="C91" s="99"/>
+      <c r="D91" s="99"/>
+      <c r="E91" s="99"/>
+      <c r="F91" s="99"/>
+      <c r="G91" s="99"/>
+      <c r="H91" s="100"/>
+    </row>
+    <row r="92" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="101" t="s">
         <v>98</v>
       </c>
-      <c r="B18" s="125"/>
-      <c r="C18" s="125"/>
-      <c r="D18" s="125"/>
-      <c r="E18" s="125"/>
-      <c r="F18" s="125"/>
-      <c r="G18" s="125"/>
-      <c r="H18" s="126"/>
-    </row>
-    <row r="19" spans="1:8" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="127"/>
-      <c r="B19" s="128"/>
-      <c r="C19" s="128"/>
-      <c r="D19" s="128"/>
-      <c r="E19" s="128"/>
-      <c r="F19" s="128"/>
-      <c r="G19" s="128"/>
-      <c r="H19" s="129"/>
-    </row>
-    <row r="20" spans="1:8" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="127"/>
-      <c r="B20" s="128"/>
-      <c r="C20" s="128"/>
-      <c r="D20" s="128"/>
-      <c r="E20" s="128"/>
-      <c r="F20" s="128"/>
-      <c r="G20" s="128"/>
-      <c r="H20" s="129"/>
-    </row>
-    <row r="21" spans="1:8" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="127"/>
-      <c r="B21" s="128"/>
-      <c r="C21" s="128"/>
-      <c r="D21" s="128"/>
-      <c r="E21" s="128"/>
-      <c r="F21" s="128"/>
-      <c r="G21" s="128"/>
-      <c r="H21" s="129"/>
-    </row>
-    <row r="22" spans="1:8" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="127"/>
-      <c r="B22" s="128"/>
-      <c r="C22" s="128"/>
-      <c r="D22" s="128"/>
-      <c r="E22" s="128"/>
-      <c r="F22" s="128"/>
-      <c r="G22" s="128"/>
-      <c r="H22" s="129"/>
-    </row>
-    <row r="23" spans="1:8" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="127"/>
-      <c r="B23" s="128"/>
-      <c r="C23" s="128"/>
-      <c r="D23" s="128"/>
-      <c r="E23" s="128"/>
-      <c r="F23" s="128"/>
-      <c r="G23" s="128"/>
-      <c r="H23" s="129"/>
-    </row>
-    <row r="24" spans="1:8" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="127"/>
-      <c r="B24" s="128"/>
-      <c r="C24" s="128"/>
-      <c r="D24" s="128"/>
-      <c r="E24" s="128"/>
-      <c r="F24" s="128"/>
-      <c r="G24" s="128"/>
-      <c r="H24" s="129"/>
-    </row>
-    <row r="25" spans="1:8" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="127"/>
-      <c r="B25" s="128"/>
-      <c r="C25" s="128"/>
-      <c r="D25" s="128"/>
-      <c r="E25" s="128"/>
-      <c r="F25" s="128"/>
-      <c r="G25" s="128"/>
-      <c r="H25" s="129"/>
-    </row>
-    <row r="26" spans="1:8" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="127"/>
-      <c r="B26" s="128"/>
-      <c r="C26" s="128"/>
-      <c r="D26" s="128"/>
-      <c r="E26" s="128"/>
-      <c r="F26" s="128"/>
-      <c r="G26" s="128"/>
-      <c r="H26" s="129"/>
-    </row>
-    <row r="27" spans="1:8" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="127"/>
-      <c r="B27" s="128"/>
-      <c r="C27" s="128"/>
-      <c r="D27" s="128"/>
-      <c r="E27" s="128"/>
-      <c r="F27" s="128"/>
-      <c r="G27" s="128"/>
-      <c r="H27" s="129"/>
-    </row>
-    <row r="28" spans="1:8" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="127"/>
-      <c r="B28" s="128"/>
-      <c r="C28" s="128"/>
-      <c r="D28" s="128"/>
-      <c r="E28" s="128"/>
-      <c r="F28" s="128"/>
-      <c r="G28" s="128"/>
-      <c r="H28" s="129"/>
-    </row>
-    <row r="29" spans="1:8" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="127"/>
-      <c r="B29" s="128"/>
-      <c r="C29" s="128"/>
-      <c r="D29" s="128"/>
-      <c r="E29" s="128"/>
-      <c r="F29" s="128"/>
-      <c r="G29" s="128"/>
-      <c r="H29" s="129"/>
-    </row>
-    <row r="30" spans="1:8" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="127"/>
-      <c r="B30" s="128"/>
-      <c r="C30" s="128"/>
-      <c r="D30" s="128"/>
-      <c r="E30" s="128"/>
-      <c r="F30" s="128"/>
-      <c r="G30" s="128"/>
-      <c r="H30" s="129"/>
-    </row>
-    <row r="31" spans="1:8" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="127"/>
-      <c r="B31" s="128"/>
-      <c r="C31" s="128"/>
-      <c r="D31" s="128"/>
-      <c r="E31" s="128"/>
-      <c r="F31" s="128"/>
-      <c r="G31" s="128"/>
-      <c r="H31" s="129"/>
-    </row>
-    <row r="32" spans="1:8" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="127"/>
-      <c r="B32" s="128"/>
-      <c r="C32" s="128"/>
-      <c r="D32" s="128"/>
-      <c r="E32" s="128"/>
-      <c r="F32" s="128"/>
-      <c r="G32" s="128"/>
-      <c r="H32" s="129"/>
-    </row>
-    <row r="33" spans="1:8" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="127"/>
-      <c r="B33" s="128"/>
-      <c r="C33" s="128"/>
-      <c r="D33" s="128"/>
-      <c r="E33" s="128"/>
-      <c r="F33" s="128"/>
-      <c r="G33" s="128"/>
-      <c r="H33" s="129"/>
-    </row>
-    <row r="34" spans="1:8" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="127"/>
-      <c r="B34" s="128"/>
-      <c r="C34" s="128"/>
-      <c r="D34" s="128"/>
-      <c r="E34" s="128"/>
-      <c r="F34" s="128"/>
-      <c r="G34" s="128"/>
-      <c r="H34" s="129"/>
-    </row>
-    <row r="35" spans="1:8" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="127"/>
-      <c r="B35" s="128"/>
-      <c r="C35" s="128"/>
-      <c r="D35" s="128"/>
-      <c r="E35" s="128"/>
-      <c r="F35" s="128"/>
-      <c r="G35" s="128"/>
-      <c r="H35" s="129"/>
-    </row>
-    <row r="36" spans="1:8" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="127"/>
-      <c r="B36" s="128"/>
-      <c r="C36" s="128"/>
-      <c r="D36" s="128"/>
-      <c r="E36" s="128"/>
-      <c r="F36" s="128"/>
-      <c r="G36" s="128"/>
-      <c r="H36" s="129"/>
-    </row>
-    <row r="37" spans="1:8" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="124"/>
-      <c r="B37" s="125"/>
-      <c r="C37" s="125"/>
-      <c r="D37" s="125"/>
-      <c r="E37" s="125"/>
-      <c r="F37" s="125"/>
-      <c r="G37" s="125"/>
-      <c r="H37" s="126"/>
-    </row>
-    <row r="38" spans="1:8" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="124"/>
-      <c r="B38" s="125"/>
-      <c r="C38" s="125"/>
-      <c r="D38" s="125"/>
-      <c r="E38" s="125"/>
-      <c r="F38" s="125"/>
-      <c r="G38" s="125"/>
-      <c r="H38" s="126"/>
-    </row>
-    <row r="39" spans="1:8" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="121" t="s">
+      <c r="B92" s="102"/>
+      <c r="C92" s="102"/>
+      <c r="D92" s="102"/>
+      <c r="E92" s="102"/>
+      <c r="F92" s="102"/>
+      <c r="G92" s="102"/>
+      <c r="H92" s="103"/>
+    </row>
+    <row r="93" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="98" t="s">
         <v>99</v>
       </c>
-      <c r="B39" s="122"/>
-      <c r="C39" s="122"/>
-      <c r="D39" s="122"/>
-      <c r="E39" s="122"/>
-      <c r="F39" s="122"/>
-      <c r="G39" s="122"/>
-      <c r="H39" s="123"/>
-    </row>
-    <row r="40" spans="1:8" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="112"/>
-      <c r="B40" s="112"/>
-      <c r="C40" s="112"/>
-      <c r="D40" s="112"/>
-      <c r="E40" s="112"/>
-      <c r="F40" s="112"/>
-      <c r="G40" s="112"/>
-      <c r="H40" s="112"/>
-    </row>
-    <row r="41" spans="1:8" s="86" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="130" t="s">
-        <v>118</v>
-      </c>
-      <c r="B41" s="131" t="s">
-        <v>100</v>
-      </c>
-      <c r="C41" s="131" t="s">
-        <v>101</v>
-      </c>
-      <c r="D41" s="131" t="s">
-        <v>102</v>
-      </c>
-      <c r="E41" s="131" t="s">
-        <v>103</v>
-      </c>
-      <c r="F41" s="131" t="s">
-        <v>119</v>
-      </c>
-      <c r="G41" s="131" t="s">
-        <v>104</v>
-      </c>
-      <c r="H41" s="131" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" s="86" customFormat="1" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="132" t="s">
-        <v>74</v>
-      </c>
-      <c r="B42" s="133" t="s">
-        <v>106</v>
-      </c>
-      <c r="C42" s="133" t="s">
-        <v>75</v>
-      </c>
-      <c r="D42" s="133">
-        <v>1090729</v>
-      </c>
-      <c r="E42" s="133" t="s">
-        <v>76</v>
-      </c>
-      <c r="F42" s="133" t="s">
-        <v>77</v>
-      </c>
-      <c r="G42" s="133" t="s">
-        <v>78</v>
-      </c>
-      <c r="H42" s="133" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" s="86" customFormat="1" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="132" t="s">
-        <v>79</v>
-      </c>
-      <c r="B43" s="133" t="s">
-        <v>108</v>
-      </c>
-      <c r="C43" s="133" t="s">
-        <v>80</v>
-      </c>
-      <c r="D43" s="133">
-        <v>1090729</v>
-      </c>
-      <c r="E43" s="133" t="s">
-        <v>76</v>
-      </c>
-      <c r="F43" s="133" t="s">
-        <v>77</v>
-      </c>
-      <c r="G43" s="133" t="s">
-        <v>77</v>
-      </c>
-      <c r="H43" s="133"/>
-    </row>
-    <row r="44" spans="1:8" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="132"/>
-      <c r="B44" s="133"/>
-      <c r="C44" s="133"/>
-      <c r="D44" s="133"/>
-      <c r="E44" s="133"/>
-      <c r="F44" s="133"/>
-      <c r="G44" s="133"/>
-      <c r="H44" s="133"/>
-    </row>
-    <row r="45" spans="1:8" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="132"/>
-      <c r="B45" s="133"/>
-      <c r="C45" s="133"/>
-      <c r="D45" s="133"/>
-      <c r="E45" s="133"/>
-      <c r="F45" s="133"/>
-      <c r="G45" s="133"/>
-      <c r="H45" s="133"/>
-    </row>
-    <row r="46" spans="1:8" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="132"/>
-      <c r="B46" s="133"/>
-      <c r="C46" s="133"/>
-      <c r="D46" s="133"/>
-      <c r="E46" s="133"/>
-      <c r="F46" s="133"/>
-      <c r="G46" s="133"/>
-      <c r="H46" s="133"/>
-    </row>
-    <row r="47" spans="1:8" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="132"/>
-      <c r="B47" s="133"/>
-      <c r="C47" s="133"/>
-      <c r="D47" s="133"/>
-      <c r="E47" s="133"/>
-      <c r="F47" s="133"/>
-      <c r="G47" s="133"/>
-      <c r="H47" s="133"/>
-    </row>
-    <row r="48" spans="1:8" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="132"/>
-      <c r="B48" s="133"/>
-      <c r="C48" s="133"/>
-      <c r="D48" s="133"/>
-      <c r="E48" s="133"/>
-      <c r="F48" s="133"/>
-      <c r="G48" s="133"/>
-      <c r="H48" s="133"/>
-    </row>
-    <row r="49" spans="1:8" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="132"/>
-      <c r="B49" s="133"/>
-      <c r="C49" s="133"/>
-      <c r="D49" s="133"/>
-      <c r="E49" s="133"/>
-      <c r="F49" s="133"/>
-      <c r="G49" s="133"/>
-      <c r="H49" s="133"/>
-    </row>
-    <row r="50" spans="1:8" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="132"/>
-      <c r="B50" s="133"/>
-      <c r="C50" s="133"/>
-      <c r="D50" s="133"/>
-      <c r="E50" s="133"/>
-      <c r="F50" s="133"/>
-      <c r="G50" s="133"/>
-      <c r="H50" s="133"/>
-    </row>
-    <row r="51" spans="1:8" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="132"/>
-      <c r="B51" s="133"/>
-      <c r="C51" s="133"/>
-      <c r="D51" s="133"/>
-      <c r="E51" s="133"/>
-      <c r="F51" s="133"/>
-      <c r="G51" s="133"/>
-      <c r="H51" s="133"/>
-    </row>
-    <row r="52" spans="1:8" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="134"/>
-      <c r="B52" s="135"/>
-      <c r="C52" s="135"/>
-      <c r="D52" s="135"/>
-      <c r="E52" s="135"/>
-      <c r="F52" s="135"/>
-      <c r="G52" s="135"/>
-      <c r="H52" s="136"/>
-    </row>
-    <row r="53" spans="1:8" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="124"/>
-      <c r="B53" s="125"/>
-      <c r="C53" s="125"/>
-      <c r="D53" s="125"/>
-      <c r="E53" s="125"/>
-      <c r="F53" s="125"/>
-      <c r="G53" s="125"/>
-      <c r="H53" s="126"/>
-    </row>
-    <row r="54" spans="1:8" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="121" t="s">
-        <v>109</v>
-      </c>
-      <c r="B54" s="122"/>
-      <c r="C54" s="122"/>
-      <c r="D54" s="122"/>
-      <c r="E54" s="122"/>
-      <c r="F54" s="122"/>
-      <c r="G54" s="122"/>
-      <c r="H54" s="123"/>
-    </row>
-    <row r="55" spans="1:8" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="124"/>
-      <c r="B55" s="125"/>
-      <c r="C55" s="125"/>
-      <c r="D55" s="125"/>
-      <c r="E55" s="125"/>
-      <c r="F55" s="125"/>
-      <c r="G55" s="125"/>
-      <c r="H55" s="126"/>
-    </row>
-    <row r="56" spans="1:8" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="124"/>
-      <c r="B56" s="125"/>
-      <c r="C56" s="125"/>
-      <c r="D56" s="125"/>
-      <c r="E56" s="125"/>
-      <c r="F56" s="125"/>
-      <c r="G56" s="125"/>
-      <c r="H56" s="126"/>
-    </row>
-    <row r="57" spans="1:8" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="124"/>
-      <c r="B57" s="125"/>
-      <c r="C57" s="125"/>
-      <c r="D57" s="125"/>
-      <c r="E57" s="125"/>
-      <c r="F57" s="125"/>
-      <c r="G57" s="125"/>
-      <c r="H57" s="126"/>
-    </row>
-    <row r="58" spans="1:8" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="127"/>
-      <c r="B58" s="128"/>
-      <c r="C58" s="128"/>
-      <c r="D58" s="128"/>
-      <c r="E58" s="128"/>
-      <c r="F58" s="128"/>
-      <c r="G58" s="128"/>
-      <c r="H58" s="129"/>
-    </row>
-    <row r="59" spans="1:8" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="127"/>
-      <c r="B59" s="128"/>
-      <c r="C59" s="128"/>
-      <c r="D59" s="128"/>
-      <c r="E59" s="128"/>
-      <c r="F59" s="128"/>
-      <c r="G59" s="128"/>
-      <c r="H59" s="129"/>
-    </row>
-    <row r="60" spans="1:8" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="127"/>
-      <c r="B60" s="128"/>
-      <c r="C60" s="128"/>
-      <c r="D60" s="128"/>
-      <c r="E60" s="128"/>
-      <c r="F60" s="128"/>
-      <c r="G60" s="128"/>
-      <c r="H60" s="129"/>
-    </row>
-    <row r="61" spans="1:8" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="124"/>
-      <c r="B61" s="125"/>
-      <c r="C61" s="125"/>
-      <c r="D61" s="125"/>
-      <c r="E61" s="125"/>
-      <c r="F61" s="125"/>
-      <c r="G61" s="125"/>
-      <c r="H61" s="126"/>
-    </row>
-    <row r="62" spans="1:8" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="127"/>
-      <c r="B62" s="128"/>
-      <c r="C62" s="128"/>
-      <c r="D62" s="128"/>
-      <c r="E62" s="128"/>
-      <c r="F62" s="128"/>
-      <c r="G62" s="128"/>
-      <c r="H62" s="129"/>
-    </row>
-    <row r="63" spans="1:8" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="127"/>
-      <c r="B63" s="128"/>
-      <c r="C63" s="128"/>
-      <c r="D63" s="128"/>
-      <c r="E63" s="128"/>
-      <c r="F63" s="128"/>
-      <c r="G63" s="128"/>
-      <c r="H63" s="129"/>
-    </row>
-    <row r="64" spans="1:8" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="127"/>
-      <c r="B64" s="128"/>
-      <c r="C64" s="128"/>
-      <c r="D64" s="128"/>
-      <c r="E64" s="128"/>
-      <c r="F64" s="128"/>
-      <c r="G64" s="128"/>
-      <c r="H64" s="129"/>
-    </row>
-    <row r="65" spans="1:8" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="127"/>
-      <c r="B65" s="128"/>
-      <c r="C65" s="128"/>
-      <c r="D65" s="128"/>
-      <c r="E65" s="128"/>
-      <c r="F65" s="128"/>
-      <c r="G65" s="128"/>
-      <c r="H65" s="129"/>
-    </row>
-    <row r="66" spans="1:8" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="124"/>
-      <c r="B66" s="125"/>
-      <c r="C66" s="125"/>
-      <c r="D66" s="125"/>
-      <c r="E66" s="125"/>
-      <c r="F66" s="125"/>
-      <c r="G66" s="125"/>
-      <c r="H66" s="126"/>
-    </row>
-    <row r="67" spans="1:8" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="127"/>
-      <c r="B67" s="128"/>
-      <c r="C67" s="128"/>
-      <c r="D67" s="128"/>
-      <c r="E67" s="128"/>
-      <c r="F67" s="128"/>
-      <c r="G67" s="128"/>
-      <c r="H67" s="129"/>
-    </row>
-    <row r="68" spans="1:8" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="127"/>
-      <c r="B68" s="128"/>
-      <c r="C68" s="128"/>
-      <c r="D68" s="128"/>
-      <c r="E68" s="128"/>
-      <c r="F68" s="128"/>
-      <c r="G68" s="128"/>
-      <c r="H68" s="129"/>
-    </row>
-    <row r="69" spans="1:8" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="127"/>
-      <c r="B69" s="128"/>
-      <c r="C69" s="128"/>
-      <c r="D69" s="128"/>
-      <c r="E69" s="128"/>
-      <c r="F69" s="128"/>
-      <c r="G69" s="128"/>
-      <c r="H69" s="129"/>
-    </row>
-    <row r="70" spans="1:8" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="127"/>
-      <c r="B70" s="128"/>
-      <c r="C70" s="128"/>
-      <c r="D70" s="128"/>
-      <c r="E70" s="128"/>
-      <c r="F70" s="128"/>
-      <c r="G70" s="128"/>
-      <c r="H70" s="129"/>
-    </row>
-    <row r="71" spans="1:8" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="127"/>
-      <c r="B71" s="128"/>
-      <c r="C71" s="128"/>
-      <c r="D71" s="128"/>
-      <c r="E71" s="128"/>
-      <c r="F71" s="128"/>
-      <c r="G71" s="128"/>
-      <c r="H71" s="129"/>
-    </row>
-    <row r="72" spans="1:8" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="127"/>
-      <c r="B72" s="128"/>
-      <c r="C72" s="128"/>
-      <c r="D72" s="128"/>
-      <c r="E72" s="128"/>
-      <c r="F72" s="128"/>
-      <c r="G72" s="128"/>
-      <c r="H72" s="129"/>
-    </row>
-    <row r="73" spans="1:8" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="127"/>
-      <c r="B73" s="128"/>
-      <c r="C73" s="128"/>
-      <c r="D73" s="128"/>
-      <c r="E73" s="128"/>
-      <c r="F73" s="128"/>
-      <c r="G73" s="128"/>
-      <c r="H73" s="129"/>
-    </row>
-    <row r="74" spans="1:8" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="124"/>
-      <c r="B74" s="125"/>
-      <c r="C74" s="125"/>
-      <c r="D74" s="125"/>
-      <c r="E74" s="125"/>
-      <c r="F74" s="125"/>
-      <c r="G74" s="125"/>
-      <c r="H74" s="126"/>
-    </row>
-    <row r="75" spans="1:8" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="127"/>
-      <c r="B75" s="128"/>
-      <c r="C75" s="128"/>
-      <c r="D75" s="128"/>
-      <c r="E75" s="128"/>
-      <c r="F75" s="128"/>
-      <c r="G75" s="128"/>
-      <c r="H75" s="129"/>
-    </row>
-    <row r="76" spans="1:8" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="124"/>
-      <c r="B76" s="125"/>
-      <c r="C76" s="125"/>
-      <c r="D76" s="125"/>
-      <c r="E76" s="125"/>
-      <c r="F76" s="125"/>
-      <c r="G76" s="125"/>
-      <c r="H76" s="126"/>
-    </row>
-    <row r="77" spans="1:8" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="124"/>
-      <c r="B77" s="125"/>
-      <c r="C77" s="125"/>
-      <c r="D77" s="125"/>
-      <c r="E77" s="125"/>
-      <c r="F77" s="125"/>
-      <c r="G77" s="125"/>
-      <c r="H77" s="126"/>
-    </row>
-    <row r="78" spans="1:8" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="127"/>
-      <c r="B78" s="128"/>
-      <c r="C78" s="128"/>
-      <c r="D78" s="128"/>
-      <c r="E78" s="128"/>
-      <c r="F78" s="128"/>
-      <c r="G78" s="128"/>
-      <c r="H78" s="129"/>
-    </row>
-    <row r="79" spans="1:8" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="127"/>
-      <c r="B79" s="128"/>
-      <c r="C79" s="128"/>
-      <c r="D79" s="128"/>
-      <c r="E79" s="128"/>
-      <c r="F79" s="128"/>
-      <c r="G79" s="128"/>
-      <c r="H79" s="129"/>
-    </row>
-    <row r="80" spans="1:8" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="124"/>
-      <c r="B80" s="125"/>
-      <c r="C80" s="125"/>
-      <c r="D80" s="125"/>
-      <c r="E80" s="125"/>
-      <c r="F80" s="125"/>
-      <c r="G80" s="125"/>
-      <c r="H80" s="126"/>
-    </row>
-    <row r="81" spans="1:8" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="124"/>
-      <c r="B81" s="125"/>
-      <c r="C81" s="125"/>
-      <c r="D81" s="125"/>
-      <c r="E81" s="125"/>
-      <c r="F81" s="125"/>
-      <c r="G81" s="125"/>
-      <c r="H81" s="126"/>
-    </row>
-    <row r="82" spans="1:8" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="124"/>
-      <c r="B82" s="125"/>
-      <c r="C82" s="125"/>
-      <c r="D82" s="125"/>
-      <c r="E82" s="125"/>
-      <c r="F82" s="125"/>
-      <c r="G82" s="125"/>
-      <c r="H82" s="126"/>
-    </row>
-    <row r="83" spans="1:8" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="127"/>
-      <c r="B83" s="128"/>
-      <c r="C83" s="128"/>
-      <c r="D83" s="128"/>
-      <c r="E83" s="128"/>
-      <c r="F83" s="128"/>
-      <c r="G83" s="128"/>
-      <c r="H83" s="129"/>
-    </row>
-    <row r="84" spans="1:8" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="127"/>
-      <c r="B84" s="128"/>
-      <c r="C84" s="128"/>
-      <c r="D84" s="128"/>
-      <c r="E84" s="128"/>
-      <c r="F84" s="128"/>
-      <c r="G84" s="128"/>
-      <c r="H84" s="129"/>
-    </row>
-    <row r="85" spans="1:8" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="127"/>
-      <c r="B85" s="128"/>
-      <c r="C85" s="128"/>
-      <c r="D85" s="128"/>
-      <c r="E85" s="128"/>
-      <c r="F85" s="128"/>
-      <c r="G85" s="128"/>
-      <c r="H85" s="129"/>
-    </row>
-    <row r="86" spans="1:8" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="127"/>
-      <c r="B86" s="128"/>
-      <c r="C86" s="128"/>
-      <c r="D86" s="128"/>
-      <c r="E86" s="128"/>
-      <c r="F86" s="128"/>
-      <c r="G86" s="128"/>
-      <c r="H86" s="129"/>
-    </row>
-    <row r="87" spans="1:8" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="127"/>
-      <c r="B87" s="128"/>
-      <c r="C87" s="128"/>
-      <c r="D87" s="128"/>
-      <c r="E87" s="128"/>
-      <c r="F87" s="128"/>
-      <c r="G87" s="128"/>
-      <c r="H87" s="129"/>
-    </row>
-    <row r="88" spans="1:8" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="127"/>
-      <c r="B88" s="128"/>
-      <c r="C88" s="128"/>
-      <c r="D88" s="128"/>
-      <c r="E88" s="128"/>
-      <c r="F88" s="128"/>
-      <c r="G88" s="128"/>
-      <c r="H88" s="129"/>
-    </row>
-    <row r="89" spans="1:8" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="127"/>
-      <c r="B89" s="128"/>
-      <c r="C89" s="128"/>
-      <c r="D89" s="128"/>
-      <c r="E89" s="128"/>
-      <c r="F89" s="128"/>
-      <c r="G89" s="128"/>
-      <c r="H89" s="129"/>
-    </row>
-    <row r="90" spans="1:8" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="127"/>
-      <c r="B90" s="128"/>
-      <c r="C90" s="128"/>
-      <c r="D90" s="128"/>
-      <c r="E90" s="128"/>
-      <c r="F90" s="128"/>
-      <c r="G90" s="128"/>
-      <c r="H90" s="129"/>
-    </row>
-    <row r="91" spans="1:8" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="124"/>
-      <c r="B91" s="125"/>
-      <c r="C91" s="125"/>
-      <c r="D91" s="125"/>
-      <c r="E91" s="125"/>
-      <c r="F91" s="125"/>
-      <c r="G91" s="125"/>
-      <c r="H91" s="126"/>
-    </row>
-    <row r="92" spans="1:8" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="121" t="s">
-        <v>110</v>
-      </c>
-      <c r="B92" s="122"/>
-      <c r="C92" s="122"/>
-      <c r="D92" s="122"/>
-      <c r="E92" s="122"/>
-      <c r="F92" s="122"/>
-      <c r="G92" s="122"/>
-      <c r="H92" s="123"/>
-    </row>
-    <row r="93" spans="1:8" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="124" t="s">
-        <v>111</v>
-      </c>
-      <c r="B93" s="125"/>
-      <c r="C93" s="125"/>
-      <c r="D93" s="125"/>
-      <c r="E93" s="125"/>
-      <c r="F93" s="125"/>
-      <c r="G93" s="125"/>
-      <c r="H93" s="126"/>
-    </row>
-    <row r="94" spans="1:8" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="124"/>
-      <c r="B94" s="125"/>
-      <c r="C94" s="125"/>
-      <c r="D94" s="125"/>
-      <c r="E94" s="125"/>
-      <c r="F94" s="125"/>
-      <c r="G94" s="125"/>
-      <c r="H94" s="126"/>
-    </row>
-    <row r="95" spans="1:8" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="124"/>
-      <c r="B95" s="125"/>
-      <c r="C95" s="125"/>
-      <c r="D95" s="125"/>
-      <c r="E95" s="125"/>
-      <c r="F95" s="125"/>
-      <c r="G95" s="125"/>
-      <c r="H95" s="126"/>
-    </row>
-    <row r="96" spans="1:8" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="124"/>
-      <c r="B96" s="125"/>
-      <c r="C96" s="125"/>
-      <c r="D96" s="125"/>
-      <c r="E96" s="125"/>
-      <c r="F96" s="125"/>
-      <c r="G96" s="125"/>
-      <c r="H96" s="126"/>
-    </row>
-    <row r="97" spans="1:8" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="124"/>
-      <c r="B97" s="125"/>
-      <c r="C97" s="125"/>
-      <c r="D97" s="125"/>
-      <c r="E97" s="125"/>
-      <c r="F97" s="125"/>
-      <c r="G97" s="125"/>
-      <c r="H97" s="126"/>
-    </row>
-    <row r="98" spans="1:8" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="124"/>
-      <c r="B98" s="125"/>
-      <c r="C98" s="125"/>
-      <c r="D98" s="125"/>
-      <c r="E98" s="125"/>
-      <c r="F98" s="125"/>
-      <c r="G98" s="125"/>
-      <c r="H98" s="126"/>
-    </row>
-    <row r="99" spans="1:8" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="124"/>
-      <c r="B99" s="125"/>
-      <c r="C99" s="125"/>
-      <c r="D99" s="125"/>
-      <c r="E99" s="125"/>
-      <c r="F99" s="125"/>
-      <c r="G99" s="125"/>
-      <c r="H99" s="126"/>
-    </row>
-    <row r="100" spans="1:8" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="124"/>
-      <c r="B100" s="125"/>
-      <c r="C100" s="125"/>
-      <c r="D100" s="125"/>
-      <c r="E100" s="125"/>
-      <c r="F100" s="125"/>
-      <c r="G100" s="125"/>
-      <c r="H100" s="126"/>
-    </row>
-    <row r="101" spans="1:8" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="124"/>
-      <c r="B101" s="125"/>
-      <c r="C101" s="125"/>
-      <c r="D101" s="125"/>
-      <c r="E101" s="125"/>
-      <c r="F101" s="125"/>
-      <c r="G101" s="125"/>
-      <c r="H101" s="126"/>
-    </row>
-    <row r="102" spans="1:8" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="124"/>
-      <c r="B102" s="125"/>
-      <c r="C102" s="125"/>
-      <c r="D102" s="125"/>
-      <c r="E102" s="125"/>
-      <c r="F102" s="125"/>
-      <c r="G102" s="125"/>
-      <c r="H102" s="126"/>
-    </row>
-    <row r="103" spans="1:8" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="124"/>
-      <c r="B103" s="125"/>
-      <c r="C103" s="125"/>
-      <c r="D103" s="125"/>
-      <c r="E103" s="125"/>
-      <c r="F103" s="125"/>
-      <c r="G103" s="125"/>
-      <c r="H103" s="126"/>
-    </row>
-    <row r="104" spans="1:8" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="124"/>
-      <c r="B104" s="125"/>
-      <c r="C104" s="125"/>
-      <c r="D104" s="125"/>
-      <c r="E104" s="125"/>
-      <c r="F104" s="125"/>
-      <c r="G104" s="125"/>
-      <c r="H104" s="126"/>
-    </row>
-    <row r="105" spans="1:8" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="124"/>
-      <c r="B105" s="125"/>
-      <c r="C105" s="125"/>
-      <c r="D105" s="125"/>
-      <c r="E105" s="125"/>
-      <c r="F105" s="125"/>
-      <c r="G105" s="125"/>
-      <c r="H105" s="126"/>
-    </row>
-    <row r="106" spans="1:8" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="124"/>
-      <c r="B106" s="125"/>
-      <c r="C106" s="125"/>
-      <c r="D106" s="125"/>
-      <c r="E106" s="125"/>
-      <c r="F106" s="125"/>
-      <c r="G106" s="125"/>
-      <c r="H106" s="126"/>
-    </row>
-    <row r="107" spans="1:8" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="124"/>
-      <c r="B107" s="125"/>
-      <c r="C107" s="125"/>
-      <c r="D107" s="125"/>
-      <c r="E107" s="125"/>
-      <c r="F107" s="125"/>
-      <c r="G107" s="125"/>
-      <c r="H107" s="126"/>
-    </row>
-    <row r="108" spans="1:8" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="124"/>
-      <c r="B108" s="125"/>
-      <c r="C108" s="125"/>
-      <c r="D108" s="125"/>
-      <c r="E108" s="125"/>
-      <c r="F108" s="125"/>
-      <c r="G108" s="125"/>
-      <c r="H108" s="126"/>
-    </row>
-    <row r="109" spans="1:8" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="124"/>
-      <c r="B109" s="125"/>
-      <c r="C109" s="125"/>
-      <c r="D109" s="125"/>
-      <c r="E109" s="125"/>
-      <c r="F109" s="125"/>
-      <c r="G109" s="125"/>
-      <c r="H109" s="126"/>
-    </row>
-    <row r="110" spans="1:8" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="124"/>
-      <c r="B110" s="125"/>
-      <c r="C110" s="125"/>
-      <c r="D110" s="125"/>
-      <c r="E110" s="125"/>
-      <c r="F110" s="125"/>
-      <c r="G110" s="125"/>
-      <c r="H110" s="126"/>
-    </row>
-    <row r="111" spans="1:8" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="124"/>
-      <c r="B111" s="125"/>
-      <c r="C111" s="125"/>
-      <c r="D111" s="125"/>
-      <c r="E111" s="125"/>
-      <c r="F111" s="125"/>
-      <c r="G111" s="125"/>
-      <c r="H111" s="126"/>
-    </row>
-    <row r="112" spans="1:8" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="124"/>
-      <c r="B112" s="125"/>
-      <c r="C112" s="125"/>
-      <c r="D112" s="125"/>
-      <c r="E112" s="125"/>
-      <c r="F112" s="125"/>
-      <c r="G112" s="125"/>
-      <c r="H112" s="126"/>
+      <c r="B93" s="99"/>
+      <c r="C93" s="99"/>
+      <c r="D93" s="99"/>
+      <c r="E93" s="99"/>
+      <c r="F93" s="99"/>
+      <c r="G93" s="99"/>
+      <c r="H93" s="100"/>
+    </row>
+    <row r="94" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="98"/>
+      <c r="B94" s="99"/>
+      <c r="C94" s="99"/>
+      <c r="D94" s="99"/>
+      <c r="E94" s="99"/>
+      <c r="F94" s="99"/>
+      <c r="G94" s="99"/>
+      <c r="H94" s="100"/>
+    </row>
+    <row r="95" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="98"/>
+      <c r="B95" s="99"/>
+      <c r="C95" s="99"/>
+      <c r="D95" s="99"/>
+      <c r="E95" s="99"/>
+      <c r="F95" s="99"/>
+      <c r="G95" s="99"/>
+      <c r="H95" s="100"/>
+    </row>
+    <row r="96" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="98"/>
+      <c r="B96" s="99"/>
+      <c r="C96" s="99"/>
+      <c r="D96" s="99"/>
+      <c r="E96" s="99"/>
+      <c r="F96" s="99"/>
+      <c r="G96" s="99"/>
+      <c r="H96" s="100"/>
+    </row>
+    <row r="97" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="98"/>
+      <c r="B97" s="99"/>
+      <c r="C97" s="99"/>
+      <c r="D97" s="99"/>
+      <c r="E97" s="99"/>
+      <c r="F97" s="99"/>
+      <c r="G97" s="99"/>
+      <c r="H97" s="100"/>
+    </row>
+    <row r="98" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="98"/>
+      <c r="B98" s="99"/>
+      <c r="C98" s="99"/>
+      <c r="D98" s="99"/>
+      <c r="E98" s="99"/>
+      <c r="F98" s="99"/>
+      <c r="G98" s="99"/>
+      <c r="H98" s="100"/>
+    </row>
+    <row r="99" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="98"/>
+      <c r="B99" s="99"/>
+      <c r="C99" s="99"/>
+      <c r="D99" s="99"/>
+      <c r="E99" s="99"/>
+      <c r="F99" s="99"/>
+      <c r="G99" s="99"/>
+      <c r="H99" s="100"/>
+    </row>
+    <row r="100" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="98"/>
+      <c r="B100" s="99"/>
+      <c r="C100" s="99"/>
+      <c r="D100" s="99"/>
+      <c r="E100" s="99"/>
+      <c r="F100" s="99"/>
+      <c r="G100" s="99"/>
+      <c r="H100" s="100"/>
+    </row>
+    <row r="101" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="98"/>
+      <c r="B101" s="99"/>
+      <c r="C101" s="99"/>
+      <c r="D101" s="99"/>
+      <c r="E101" s="99"/>
+      <c r="F101" s="99"/>
+      <c r="G101" s="99"/>
+      <c r="H101" s="100"/>
+    </row>
+    <row r="102" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="98"/>
+      <c r="B102" s="99"/>
+      <c r="C102" s="99"/>
+      <c r="D102" s="99"/>
+      <c r="E102" s="99"/>
+      <c r="F102" s="99"/>
+      <c r="G102" s="99"/>
+      <c r="H102" s="100"/>
+    </row>
+    <row r="103" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="98"/>
+      <c r="B103" s="99"/>
+      <c r="C103" s="99"/>
+      <c r="D103" s="99"/>
+      <c r="E103" s="99"/>
+      <c r="F103" s="99"/>
+      <c r="G103" s="99"/>
+      <c r="H103" s="100"/>
+    </row>
+    <row r="104" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="98"/>
+      <c r="B104" s="99"/>
+      <c r="C104" s="99"/>
+      <c r="D104" s="99"/>
+      <c r="E104" s="99"/>
+      <c r="F104" s="99"/>
+      <c r="G104" s="99"/>
+      <c r="H104" s="100"/>
+    </row>
+    <row r="105" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="98"/>
+      <c r="B105" s="99"/>
+      <c r="C105" s="99"/>
+      <c r="D105" s="99"/>
+      <c r="E105" s="99"/>
+      <c r="F105" s="99"/>
+      <c r="G105" s="99"/>
+      <c r="H105" s="100"/>
+    </row>
+    <row r="106" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="98"/>
+      <c r="B106" s="99"/>
+      <c r="C106" s="99"/>
+      <c r="D106" s="99"/>
+      <c r="E106" s="99"/>
+      <c r="F106" s="99"/>
+      <c r="G106" s="99"/>
+      <c r="H106" s="100"/>
+    </row>
+    <row r="107" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="98"/>
+      <c r="B107" s="99"/>
+      <c r="C107" s="99"/>
+      <c r="D107" s="99"/>
+      <c r="E107" s="99"/>
+      <c r="F107" s="99"/>
+      <c r="G107" s="99"/>
+      <c r="H107" s="100"/>
+    </row>
+    <row r="108" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="98"/>
+      <c r="B108" s="99"/>
+      <c r="C108" s="99"/>
+      <c r="D108" s="99"/>
+      <c r="E108" s="99"/>
+      <c r="F108" s="99"/>
+      <c r="G108" s="99"/>
+      <c r="H108" s="100"/>
+    </row>
+    <row r="109" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="98"/>
+      <c r="B109" s="99"/>
+      <c r="C109" s="99"/>
+      <c r="D109" s="99"/>
+      <c r="E109" s="99"/>
+      <c r="F109" s="99"/>
+      <c r="G109" s="99"/>
+      <c r="H109" s="100"/>
+    </row>
+    <row r="110" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="98"/>
+      <c r="B110" s="99"/>
+      <c r="C110" s="99"/>
+      <c r="D110" s="99"/>
+      <c r="E110" s="99"/>
+      <c r="F110" s="99"/>
+      <c r="G110" s="99"/>
+      <c r="H110" s="100"/>
+    </row>
+    <row r="111" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="98"/>
+      <c r="B111" s="99"/>
+      <c r="C111" s="99"/>
+      <c r="D111" s="99"/>
+      <c r="E111" s="99"/>
+      <c r="F111" s="99"/>
+      <c r="G111" s="99"/>
+      <c r="H111" s="100"/>
+    </row>
+    <row r="112" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="98"/>
+      <c r="B112" s="99"/>
+      <c r="C112" s="99"/>
+      <c r="D112" s="99"/>
+      <c r="E112" s="99"/>
+      <c r="F112" s="99"/>
+      <c r="G112" s="99"/>
+      <c r="H112" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="58">
